--- a/Automation/src/main/resources/userlogindetails2.xlsx
+++ b/Automation/src/main/resources/userlogindetails2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAI SRINIVAS\git\repository\Automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82782D90-6AB3-49AB-8731-7F6B5CAEE382}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8385C-2151-4A44-A108-8DCF02C191BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="userlogs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Last_Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>IsValid</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>Mobile</t>
   </si>
   <si>
@@ -72,107 +69,101 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Devasena</t>
-  </si>
-  <si>
     <t>abcdefghijklmnopqrstuv@gmail.com</t>
   </si>
   <si>
-    <t>password1</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>23-08-2000</t>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>uwvd</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>Reverb Red</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Searchingword</t>
+  </si>
+  <si>
+    <t>Lenovo Mobile</t>
+  </si>
+  <si>
+    <t>Fisrt_Name</t>
+  </si>
+  <si>
+    <t>Sai Srinivas</t>
+  </si>
+  <si>
+    <t>Kollu</t>
+  </si>
+  <si>
+    <t>524201</t>
+  </si>
+  <si>
+    <t>Checkword</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>OnePlus Bullets Wireless Z Bass Edition Bluetooth Headset</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>28-August-2021</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Chennai</t>
   </si>
   <si>
     <t>1234567890</t>
-  </si>
-  <si>
-    <t>Nellore</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>jeans</t>
-  </si>
-  <si>
-    <t>product-collection-image-404</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>uwvd</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstu@gmail.com</t>
-  </si>
-  <si>
-    <t>24-08-2000</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>123457</t>
-  </si>
-  <si>
-    <t>product-collection-image-417</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>abcdefghijkpqrstuv@gmail.com</t>
-  </si>
-  <si>
-    <t>25-08-2000</t>
-  </si>
-  <si>
-    <t>1234567892</t>
-  </si>
-  <si>
-    <t>123458</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>jwcbkjbqdc</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>26-08-2000</t>
-  </si>
-  <si>
-    <t>1234567893</t>
-  </si>
-  <si>
-    <t>123459</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +175,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -210,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -219,6 +216,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,15 +498,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="21" max="21" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="76.6640625" customWidth="1"/>
+    <col min="23" max="23" width="39.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,232 +529,141 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="V2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="W2" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="abcdefghijklmnopqrstu@gmail.com" xr:uid="{CBFBD677-1FDC-49EF-A9F2-BDCE20F9DC4C}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{562D8653-9FE1-4D96-82E3-EA3D4D585B86}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Abcde54321@" xr:uid="{6DE5026B-7601-4A60-89B1-110629986BAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>